--- a/data/trans_orig/P14A14-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A14-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4257327C-E9BC-4690-BB8F-E3687B38DE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DC6DDB8-C4C4-4039-B39A-7D3B7843D1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0C33DCC3-B7F1-4416-99FA-035BCA7379A6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{01095EE0-A95D-4399-92E7-46EAFB4BB6E9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -84,19 +84,19 @@
     <t>87,93%</t>
   </si>
   <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
   </si>
   <si>
     <t>84,76%</t>
   </si>
   <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,19 +108,19 @@
     <t>12,07%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
   </si>
   <si>
     <t>15,24%</t>
   </si>
   <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,19 +138,19 @@
     <t>85,54%</t>
   </si>
   <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
   </si>
   <si>
     <t>84,45%</t>
   </si>
   <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
   </si>
   <si>
     <t>24,76%</t>
@@ -162,19 +162,19 @@
     <t>14,46%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
   </si>
   <si>
     <t>15,55%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,55 +195,55 @@
     <t>57,7%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
   </si>
   <si>
     <t>87,73%</t>
   </si>
   <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
   </si>
   <si>
     <t>42,3%</t>
   </si>
   <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
   </si>
   <si>
     <t>12,27%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -258,19 +258,19 @@
     <t>80,74%</t>
   </si>
   <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
   </si>
   <si>
     <t>81,11%</t>
   </si>
   <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -279,73 +279,73 @@
     <t>19,26%</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
   </si>
   <si>
     <t>18,89%</t>
   </si>
   <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
   </si>
   <si>
     <t>69,58%</t>
   </si>
   <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
   </si>
   <si>
     <t>85,12%</t>
   </si>
   <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
   </si>
   <si>
     <t>82,99%</t>
   </si>
   <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
   </si>
   <si>
     <t>30,42%</t>
   </si>
   <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
   </si>
   <si>
     <t>14,88%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
   </si>
   <si>
     <t>17,01%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -354,13 +354,13 @@
     <t>73,65%</t>
   </si>
   <si>
-    <t>35,2%</t>
+    <t>34,96%</t>
   </si>
   <si>
     <t>79,77%</t>
   </si>
   <si>
-    <t>47,14%</t>
+    <t>47,11%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -369,67 +369,67 @@
     <t>26,35%</t>
   </si>
   <si>
-    <t>64,8%</t>
+    <t>65,04%</t>
   </si>
   <si>
     <t>20,23%</t>
   </si>
   <si>
-    <t>52,86%</t>
+    <t>52,89%</t>
   </si>
   <si>
     <t>77,37%</t>
   </si>
   <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
   </si>
   <si>
     <t>82,55%</t>
   </si>
   <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
   </si>
   <si>
     <t>82,03%</t>
   </si>
   <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
   </si>
   <si>
     <t>22,63%</t>
   </si>
   <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
   </si>
   <si>
     <t>17,45%</t>
   </si>
   <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
   </si>
 </sst>
 </file>
@@ -841,7 +841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A836A6CC-4A53-4FDF-BE35-EDF6D90A0987}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D174039-BCBF-43C6-8BB3-1D02E27060FA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1586,7 +1586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790EA999-B562-4558-8422-1354B88A4AA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4297659F-6011-4B9A-AD42-63065098E6A3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A14-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A14-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DC6DDB8-C4C4-4039-B39A-7D3B7843D1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C61AFED5-A2A8-453B-A79D-DEF5C7D72B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{01095EE0-A95D-4399-92E7-46EAFB4BB6E9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B9579E20-F7D2-48A2-9E9F-82390B8421CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,172 +84,172 @@
     <t>87,93%</t>
   </si>
   <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
     <t>77,02%</t>
   </si>
   <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
   </si>
   <si>
     <t>22,98%</t>
   </si>
   <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por fibromialgia en 2015 (Tasa respuesta: 1,95%)</t>
+    <t>Población que recibe medicación o terapia por fibromialgia en 2016 (Tasa respuesta: 1,95%)</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -258,19 +258,19 @@
     <t>80,74%</t>
   </si>
   <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
   </si>
   <si>
     <t>81,11%</t>
   </si>
   <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -279,73 +279,73 @@
     <t>19,26%</t>
   </si>
   <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
   </si>
   <si>
     <t>18,89%</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
   </si>
   <si>
     <t>69,58%</t>
   </si>
   <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
   </si>
   <si>
     <t>85,12%</t>
   </si>
   <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
   </si>
   <si>
     <t>82,99%</t>
   </si>
   <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
   </si>
   <si>
     <t>30,42%</t>
   </si>
   <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
   </si>
   <si>
     <t>14,88%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
   </si>
   <si>
     <t>17,01%</t>
   </si>
   <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -354,13 +354,13 @@
     <t>73,65%</t>
   </si>
   <si>
-    <t>34,96%</t>
+    <t>35,18%</t>
   </si>
   <si>
     <t>79,77%</t>
   </si>
   <si>
-    <t>47,11%</t>
+    <t>42,09%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -369,67 +369,67 @@
     <t>26,35%</t>
   </si>
   <si>
-    <t>65,04%</t>
+    <t>64,82%</t>
   </si>
   <si>
     <t>20,23%</t>
   </si>
   <si>
-    <t>52,89%</t>
+    <t>57,91%</t>
   </si>
   <si>
     <t>77,37%</t>
   </si>
   <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
   </si>
   <si>
     <t>82,55%</t>
   </si>
   <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
   </si>
   <si>
     <t>82,03%</t>
   </si>
   <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
   </si>
   <si>
     <t>22,63%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
   </si>
   <si>
     <t>17,45%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
   </si>
 </sst>
 </file>
@@ -841,7 +841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D174039-BCBF-43C6-8BB3-1D02E27060FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2734F568-930F-4DFB-A5A2-6FE75B866515}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1586,7 +1586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4297659F-6011-4B9A-AD42-63065098E6A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5885A2A9-AD6F-40A0-B02F-07BF8283926E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
